--- a/TestData/LV_T2009_GiftLogRecipientsExceedsYearlyGiftAllowanceGreaterThan100ForCurrencyTypeAustralianDollar.xlsx
+++ b/TestData/LV_T2009_GiftLogRecipientsExceedsYearlyGiftAllowanceGreaterThan100ForCurrencyTypeAustralianDollar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305B1762-BF8E-4EA7-BE3B-CD69E329E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558546E8-5FAE-4025-AA0A-92E0A848A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>ConvertedGiftValue</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Melissa Zatta</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>NEW GIFT AMT YTD</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -499,12 +499,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -527,12 +527,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +545,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,10 +616,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -637,7 +637,7 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>

--- a/TestData/LV_T2009_GiftLogRecipientsExceedsYearlyGiftAllowanceGreaterThan100ForCurrencyTypeAustralianDollar.xlsx
+++ b/TestData/LV_T2009_GiftLogRecipientsExceedsYearlyGiftAllowanceGreaterThan100ForCurrencyTypeAustralianDollar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558546E8-5FAE-4025-AA0A-92E0A848A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08510F9-9031-4957-98BC-65ABA7065587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>ConvertedGiftValue</t>
   </si>
   <si>
-    <t>Melissa Zatta</t>
-  </si>
-  <si>
     <t>Giftlog Contact</t>
   </si>
   <si>
@@ -129,7 +126,10 @@
     <t>NEW GIFT AMT YTD</t>
   </si>
   <si>
-    <t>100</t>
+    <t>Julie Carthane</t>
+  </si>
+  <si>
+    <t>180</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -499,12 +499,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -527,12 +527,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +545,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>33</v>
@@ -637,7 +637,7 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
